--- a/biology/Zoologie/La_Fête_sauvage/La_Fête_sauvage.xlsx
+++ b/biology/Zoologie/La_Fête_sauvage/La_Fête_sauvage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>La_F%C3%AAte_sauvage</t>
+          <t>La_Fête_sauvage</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Fête sauvage est un documentaire animalier français réalisé par Frédéric Rossif et sorti en 1976. La bande sonore a été composée par Vangelis.
-Le film a nécessité plus de deux années de tournage en Asie, Afrique et Amérique du Sud[1].
+Le film a nécessité plus de deux années de tournage en Asie, Afrique et Amérique du Sud.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>La_F%C3%AAte_sauvage</t>
+          <t>La_Fête_sauvage</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le film, capté sur le vif, raconte le quotidien des animaux sauvages. Vie et mort, chasse, jeu, amours, repos, il décrit le quotidien des animaux dans leur milieu naturel.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>La_F%C3%AAte_sauvage</t>
+          <t>La_Fête_sauvage</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Réalisation : Frédéric Rossif
 Commentaires : Madeleine Chapsal
@@ -557,7 +573,7 @@
 Format : couleur - 1,66:1 - mono
 Genre : documentaire
 Durée : 92 minutes
-Date de sortie : 4 février 1976[2]
+Date de sortie : 4 février 1976
 Date de ressortie : 18 juin 2014 (version restaurée)</t>
         </is>
       </c>
@@ -568,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>La_F%C3%AAte_sauvage</t>
+          <t>La_Fête_sauvage</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,7 +602,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Évelyne Dress : récitante
 Gérard Falconetti : récitant
@@ -600,7 +618,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>La_F%C3%AAte_sauvage</t>
+          <t>La_Fête_sauvage</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -618,7 +636,9 @@
           <t>Bande originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La bande sonore, composée par le musicien et compositeur grec Vangelis, est sortie en 1976. Ce musicien est un des pionniers de la musique électronique.
 </t>
@@ -631,7 +651,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>La_F%C3%AAte_sauvage</t>
+          <t>La_Fête_sauvage</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -649,7 +669,9 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Madeleine Chapsal, La Fête sauvage, édition Laffont, 1976, 199 pages.</t>
         </is>
